--- a/时变路网.xlsx
+++ b/时变路网.xlsx
@@ -4,24 +4,29 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11900"/>
+    <workbookView windowWidth="17845" windowHeight="8725"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1 (2)" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet1 (3)" sheetId="5" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="3">
   <si>
     <t>时间</t>
   </si>
   <si>
     <t>拥堵指数</t>
+  </si>
+  <si>
+    <t>较拥堵路段：</t>
   </si>
 </sst>
 </file>
@@ -30,10 +35,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="h:mm;@"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="21">
@@ -53,15 +58,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -75,23 +74,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -113,17 +104,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -131,7 +113,37 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -146,18 +158,33 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -174,28 +201,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -206,7 +211,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -218,121 +337,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -350,13 +355,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -368,25 +391,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -400,11 +405,76 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -427,73 +497,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -502,148 +507,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -657,69 +662,69 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -911,76 +916,76 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>1.06</c:v>
+                  <c:v>0.742</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.01</c:v>
+                  <c:v>0.707</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.96</c:v>
+                  <c:v>0.672</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.95</c:v>
+                  <c:v>0.665</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.96</c:v>
+                  <c:v>0.672</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.96</c:v>
+                  <c:v>0.672</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.09</c:v>
+                  <c:v>0.763</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.81</c:v>
+                  <c:v>1.267</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.16</c:v>
+                  <c:v>1.512</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.79</c:v>
+                  <c:v>1.253</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.63</c:v>
+                  <c:v>1.141</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.36</c:v>
+                  <c:v>0.952</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.27</c:v>
+                  <c:v>0.889</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.33</c:v>
+                  <c:v>0.931</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.35</c:v>
+                  <c:v>0.945</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.35</c:v>
+                  <c:v>0.945</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.4</c:v>
+                  <c:v>0.98</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.72</c:v>
+                  <c:v>1.204</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.93</c:v>
+                  <c:v>1.351</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.54</c:v>
+                  <c:v>1.078</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.35</c:v>
+                  <c:v>0.945</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.35</c:v>
+                  <c:v>0.945</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.22</c:v>
+                  <c:v>0.854</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.13</c:v>
+                  <c:v>0.791</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1295,7 +1300,1159 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet1 (2)'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>拥堵指数</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+              <a:headEnd type="none"/>
+              <a:tailEnd type="none"/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525" cap="sq">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+                <a:headEnd type="diamond"/>
+                <a:tailEnd type="diamond"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet1 (2)'!$A$2:$A$25</c:f>
+              <c:numCache>
+                <c:formatCode>h:mm;@</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0" c:formatCode="h:mm;@">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1" c:formatCode="h:mm;@">
+                  <c:v>1.04166666666667</c:v>
+                </c:pt>
+                <c:pt idx="2" c:formatCode="h:mm;@">
+                  <c:v>0.0833333333333335</c:v>
+                </c:pt>
+                <c:pt idx="3" c:formatCode="h:mm;@">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="4" c:formatCode="h:mm;@">
+                  <c:v>0.166666666666667</c:v>
+                </c:pt>
+                <c:pt idx="5" c:formatCode="h:mm;@">
+                  <c:v>0.208333333333333</c:v>
+                </c:pt>
+                <c:pt idx="6" c:formatCode="h:mm;@">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="7" c:formatCode="h:mm;@">
+                  <c:v>0.291666666666667</c:v>
+                </c:pt>
+                <c:pt idx="8" c:formatCode="h:mm;@">
+                  <c:v>0.333333333333334</c:v>
+                </c:pt>
+                <c:pt idx="9" c:formatCode="h:mm;@">
+                  <c:v>0.375000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10" c:formatCode="h:mm;@">
+                  <c:v>0.416666666666667</c:v>
+                </c:pt>
+                <c:pt idx="11" c:formatCode="h:mm;@">
+                  <c:v>0.458333333333334</c:v>
+                </c:pt>
+                <c:pt idx="12" c:formatCode="h:mm;@">
+                  <c:v>0.500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="13" c:formatCode="h:mm;@">
+                  <c:v>0.541666666666668</c:v>
+                </c:pt>
+                <c:pt idx="14" c:formatCode="h:mm;@">
+                  <c:v>0.583333333333334</c:v>
+                </c:pt>
+                <c:pt idx="15" c:formatCode="h:mm;@">
+                  <c:v>0.625000000000001</c:v>
+                </c:pt>
+                <c:pt idx="16" c:formatCode="h:mm;@">
+                  <c:v>0.666666666666668</c:v>
+                </c:pt>
+                <c:pt idx="17" c:formatCode="h:mm;@">
+                  <c:v>0.708333333333335</c:v>
+                </c:pt>
+                <c:pt idx="18" c:formatCode="h:mm;@">
+                  <c:v>0.750000000000001</c:v>
+                </c:pt>
+                <c:pt idx="19" c:formatCode="h:mm;@">
+                  <c:v>0.791666666666668</c:v>
+                </c:pt>
+                <c:pt idx="20" c:formatCode="h:mm;@">
+                  <c:v>0.833333333333335</c:v>
+                </c:pt>
+                <c:pt idx="21" c:formatCode="h:mm;@">
+                  <c:v>0.875000000000002</c:v>
+                </c:pt>
+                <c:pt idx="22" c:formatCode="h:mm;@">
+                  <c:v>0.916666666666668</c:v>
+                </c:pt>
+                <c:pt idx="23" c:formatCode="h:mm;@">
+                  <c:v>0.958333333333335</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sheet1 (2)'!$B$2:$B$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0.742</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.707</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.672</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.665</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.672</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.672</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.763</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.267</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.512</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.253</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.141</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.952</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.889</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.931</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.945</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.945</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.204</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.351</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.078</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.945</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.945</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.854</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.791</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:dropLines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="35000"/>
+                  <a:lumOff val="65000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:dropLines>
+        <c:marker val="1"/>
+        <c:smooth val="1"/>
+        <c:axId val="1775614560"/>
+        <c:axId val="1775621216"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1775614560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="zh-CN" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" sz="1200" b="0"/>
+                  <a:t>时间</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" sz="1200" b="0"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="h:mm;@" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1775621216"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1775621216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="2.3"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="zh-CN" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" sz="1200" b="0"/>
+                  <a:t>拥堵指数</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" sz="1200" b="0"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:ln w="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1775614560"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="0.1"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="zh-CN" baseline="0">
+          <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:externalData r:id="rId1">
+    <c:autoUpdate val="0"/>
+  </c:externalData>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet1 (3)'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>拥堵指数</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+              <a:headEnd type="none"/>
+              <a:tailEnd type="none"/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525" cap="sq">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+                <a:headEnd type="diamond"/>
+                <a:tailEnd type="diamond"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet1 (3)'!$A$2:$A$25</c:f>
+              <c:numCache>
+                <c:formatCode>h:mm;@</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0" c:formatCode="h:mm;@">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1" c:formatCode="h:mm;@">
+                  <c:v>1.04166666666667</c:v>
+                </c:pt>
+                <c:pt idx="2" c:formatCode="h:mm;@">
+                  <c:v>0.0833333333333335</c:v>
+                </c:pt>
+                <c:pt idx="3" c:formatCode="h:mm;@">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="4" c:formatCode="h:mm;@">
+                  <c:v>0.166666666666667</c:v>
+                </c:pt>
+                <c:pt idx="5" c:formatCode="h:mm;@">
+                  <c:v>0.208333333333333</c:v>
+                </c:pt>
+                <c:pt idx="6" c:formatCode="h:mm;@">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="7" c:formatCode="h:mm;@">
+                  <c:v>0.291666666666667</c:v>
+                </c:pt>
+                <c:pt idx="8" c:formatCode="h:mm;@">
+                  <c:v>0.333333333333334</c:v>
+                </c:pt>
+                <c:pt idx="9" c:formatCode="h:mm;@">
+                  <c:v>0.375000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10" c:formatCode="h:mm;@">
+                  <c:v>0.416666666666667</c:v>
+                </c:pt>
+                <c:pt idx="11" c:formatCode="h:mm;@">
+                  <c:v>0.458333333333334</c:v>
+                </c:pt>
+                <c:pt idx="12" c:formatCode="h:mm;@">
+                  <c:v>0.500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="13" c:formatCode="h:mm;@">
+                  <c:v>0.541666666666668</c:v>
+                </c:pt>
+                <c:pt idx="14" c:formatCode="h:mm;@">
+                  <c:v>0.583333333333334</c:v>
+                </c:pt>
+                <c:pt idx="15" c:formatCode="h:mm;@">
+                  <c:v>0.625000000000001</c:v>
+                </c:pt>
+                <c:pt idx="16" c:formatCode="h:mm;@">
+                  <c:v>0.666666666666668</c:v>
+                </c:pt>
+                <c:pt idx="17" c:formatCode="h:mm;@">
+                  <c:v>0.708333333333335</c:v>
+                </c:pt>
+                <c:pt idx="18" c:formatCode="h:mm;@">
+                  <c:v>0.750000000000001</c:v>
+                </c:pt>
+                <c:pt idx="19" c:formatCode="h:mm;@">
+                  <c:v>0.791666666666668</c:v>
+                </c:pt>
+                <c:pt idx="20" c:formatCode="h:mm;@">
+                  <c:v>0.833333333333335</c:v>
+                </c:pt>
+                <c:pt idx="21" c:formatCode="h:mm;@">
+                  <c:v>0.875000000000002</c:v>
+                </c:pt>
+                <c:pt idx="22" c:formatCode="h:mm;@">
+                  <c:v>0.916666666666668</c:v>
+                </c:pt>
+                <c:pt idx="23" c:formatCode="h:mm;@">
+                  <c:v>0.958333333333335</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sheet1 (3)'!$B$2:$B$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>1.06</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.09</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.81</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.16</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.79</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.63</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.36</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.27</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.33</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.35</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.35</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.72</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.93</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.54</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.35</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.35</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.13</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:dropLines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="35000"/>
+                  <a:lumOff val="65000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:dropLines>
+        <c:marker val="1"/>
+        <c:smooth val="1"/>
+        <c:axId val="1775614560"/>
+        <c:axId val="1775621216"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1775614560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="zh-CN" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" sz="1200" b="0"/>
+                  <a:t>时间</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" sz="1200" b="0"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="h:mm;@" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1775621216"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1775621216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="2.3"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="zh-CN" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" sz="1200" b="0"/>
+                  <a:t>拥堵指数</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" sz="1200" b="0"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:ln w="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1775614560"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="0.1"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="zh-CN" baseline="0">
+          <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:externalData r:id="rId1">
+    <c:autoUpdate val="0"/>
+  </c:externalData>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1851,7 +3008,1109 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>621030</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>170180</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>70485</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>86360</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="2900045" y="707390"/>
+        <a:ext cx="8330565" cy="3676650"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>17145</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>148590</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>100965</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>64770</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="2930525" y="864870"/>
+        <a:ext cx="8330565" cy="3676650"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1868,12 +4127,12 @@
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="图表 2"/>
+        <xdr:cNvPr id="2" name="图表 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5130165" y="975360"/>
-        <a:ext cx="7810500" cy="4396740"/>
+        <a:off x="5948680" y="838200"/>
+        <a:ext cx="8330565" cy="3676650"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2171,18 +4430,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="14.3365384615385" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.3333333333333" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -2198,7 +4457,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1">
-        <v>1.06</v>
+        <v>0.742</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2206,7 +4465,7 @@
         <v>1.04166666666667</v>
       </c>
       <c r="B3" s="1">
-        <v>1.01</v>
+        <v>0.707</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2214,7 +4473,7 @@
         <v>0.0833333333333335</v>
       </c>
       <c r="B4" s="1">
-        <v>0.96</v>
+        <v>0.672</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2222,202 +4481,202 @@
         <v>0.125</v>
       </c>
       <c r="B5" s="1">
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>0.665</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="2">
         <v>0.166666666666667</v>
       </c>
       <c r="B6" s="1">
-        <v>0.96</v>
-      </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="4"/>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="3">
+        <v>0.672</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="4"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="5">
         <v>0.208333333333333</v>
       </c>
       <c r="B7" s="4">
-        <v>0.96</v>
-      </c>
-      <c r="E7" s="6"/>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="3">
+        <v>0.672</v>
+      </c>
+      <c r="D7" s="3"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="5">
         <v>0.25</v>
       </c>
       <c r="B8" s="4">
-        <v>1.09</v>
-      </c>
-      <c r="E8" s="6"/>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="3">
+        <v>0.763</v>
+      </c>
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="5">
         <v>0.291666666666667</v>
       </c>
       <c r="B9" s="4">
-        <v>1.81</v>
-      </c>
-      <c r="E9" s="6"/>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="3">
+        <v>1.267</v>
+      </c>
+      <c r="D9" s="3"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="5">
         <v>0.333333333333334</v>
       </c>
       <c r="B10" s="4">
-        <v>2.16</v>
-      </c>
-      <c r="E10" s="6"/>
-      <c r="F10" s="4"/>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="3">
+        <v>1.512</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="4"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="5">
         <v>0.375000000000001</v>
       </c>
       <c r="B11" s="4">
-        <v>1.79</v>
-      </c>
-      <c r="E11" s="6"/>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="3">
+        <v>1.253</v>
+      </c>
+      <c r="D11" s="3"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="5">
         <v>0.416666666666667</v>
       </c>
       <c r="B12" s="4">
-        <v>1.63</v>
-      </c>
-      <c r="E12" s="6"/>
-    </row>
-    <row r="13" spans="1:5">
+        <v>1.141</v>
+      </c>
+      <c r="D12" s="3"/>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="2">
         <v>0.458333333333334</v>
       </c>
       <c r="B13" s="1">
-        <v>1.36</v>
-      </c>
-      <c r="E13" s="6"/>
-    </row>
-    <row r="14" spans="1:6">
+        <v>0.952</v>
+      </c>
+      <c r="D13" s="3"/>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="2">
         <v>0.500000000000001</v>
       </c>
       <c r="B14" s="1">
-        <v>1.27</v>
-      </c>
-      <c r="E14" s="6"/>
-      <c r="F14" s="4"/>
-    </row>
-    <row r="15" spans="1:5">
+        <v>0.889</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="4"/>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="2">
         <v>0.541666666666668</v>
       </c>
       <c r="B15" s="1">
-        <v>1.33</v>
-      </c>
-      <c r="E15" s="6"/>
-    </row>
-    <row r="16" spans="1:5">
+        <v>0.931</v>
+      </c>
+      <c r="D15" s="3"/>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="2">
         <v>0.583333333333334</v>
       </c>
       <c r="B16" s="1">
-        <v>1.35</v>
-      </c>
-      <c r="E16" s="6"/>
-    </row>
-    <row r="17" spans="1:5">
+        <v>0.945</v>
+      </c>
+      <c r="D16" s="3"/>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="2">
         <v>0.625000000000001</v>
       </c>
       <c r="B17" s="1">
-        <v>1.35</v>
-      </c>
-      <c r="E17" s="6"/>
-    </row>
-    <row r="18" spans="1:6">
+        <v>0.945</v>
+      </c>
+      <c r="D17" s="3"/>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="2">
         <v>0.666666666666668</v>
       </c>
       <c r="B18" s="1">
-        <v>1.4</v>
-      </c>
-      <c r="E18" s="6"/>
-      <c r="F18" s="4"/>
-    </row>
-    <row r="19" spans="1:5">
+        <v>0.98</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="4"/>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="2">
         <v>0.708333333333335</v>
       </c>
       <c r="B19" s="1">
-        <v>1.72</v>
-      </c>
-      <c r="E19" s="6"/>
-    </row>
-    <row r="20" spans="1:5">
+        <v>1.204</v>
+      </c>
+      <c r="D19" s="3"/>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="2">
         <v>0.750000000000001</v>
       </c>
       <c r="B20" s="1">
-        <v>1.93</v>
-      </c>
-      <c r="E20" s="6"/>
-    </row>
-    <row r="21" spans="1:5">
+        <v>1.351</v>
+      </c>
+      <c r="D20" s="3"/>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="2">
         <v>0.791666666666668</v>
       </c>
       <c r="B21" s="1">
-        <v>1.54</v>
-      </c>
-      <c r="E21" s="6"/>
-    </row>
-    <row r="22" spans="1:6">
+        <v>1.078</v>
+      </c>
+      <c r="D21" s="3"/>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" s="2">
         <v>0.833333333333335</v>
       </c>
       <c r="B22" s="1">
-        <v>1.35</v>
-      </c>
-      <c r="E22" s="6"/>
-      <c r="F22" s="4"/>
-    </row>
-    <row r="23" spans="1:5">
+        <v>0.945</v>
+      </c>
+      <c r="D22" s="3"/>
+      <c r="E22" s="4"/>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="2">
         <v>0.875000000000002</v>
       </c>
       <c r="B23" s="1">
-        <v>1.35</v>
-      </c>
-      <c r="E23" s="6"/>
-    </row>
-    <row r="24" spans="1:5">
+        <v>0.945</v>
+      </c>
+      <c r="D23" s="3"/>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="2">
         <v>0.916666666666668</v>
       </c>
       <c r="B24" s="1">
-        <v>1.22</v>
-      </c>
-      <c r="E24" s="6"/>
-    </row>
-    <row r="25" spans="1:5">
+        <v>0.854</v>
+      </c>
+      <c r="D24" s="3"/>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="2">
         <v>0.958333333333335</v>
       </c>
       <c r="B25" s="1">
-        <v>1.13</v>
-      </c>
-      <c r="E25" s="6"/>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="5"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="4"/>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="5"/>
-      <c r="E27" s="6"/>
+        <v>0.791</v>
+      </c>
+      <c r="D25" s="3"/>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="6"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="4"/>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="6"/>
+      <c r="D27" s="3"/>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="2"/>
@@ -2443,7 +4702,651 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="14.3333333333333" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0.742</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="2">
+        <v>1.04166666666667</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.707</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="2">
+        <v>0.0833333333333335</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.672</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="2">
+        <v>0.125</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.665</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="2">
+        <v>0.166666666666667</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.672</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="4"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="5">
+        <v>0.208333333333333</v>
+      </c>
+      <c r="B7" s="4">
+        <v>0.672</v>
+      </c>
+      <c r="D7" s="3"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="B8" s="4">
+        <v>0.763</v>
+      </c>
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="5">
+        <v>0.291666666666667</v>
+      </c>
+      <c r="B9" s="4">
+        <v>1.267</v>
+      </c>
+      <c r="D9" s="3"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="5">
+        <v>0.333333333333334</v>
+      </c>
+      <c r="B10" s="4">
+        <v>1.512</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="4"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="5">
+        <v>0.375000000000001</v>
+      </c>
+      <c r="B11" s="4">
+        <v>1.253</v>
+      </c>
+      <c r="D11" s="3"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="5">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="B12" s="4">
+        <v>1.141</v>
+      </c>
+      <c r="D12" s="3"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="2">
+        <v>0.458333333333334</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0.952</v>
+      </c>
+      <c r="D13" s="3"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="2">
+        <v>0.500000000000001</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0.889</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="4"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="2">
+        <v>0.541666666666668</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0.931</v>
+      </c>
+      <c r="D15" s="3"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="2">
+        <v>0.583333333333334</v>
+      </c>
+      <c r="B16" s="1">
+        <v>0.945</v>
+      </c>
+      <c r="D16" s="3"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="2">
+        <v>0.625000000000001</v>
+      </c>
+      <c r="B17" s="1">
+        <v>0.945</v>
+      </c>
+      <c r="D17" s="3"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="2">
+        <v>0.666666666666668</v>
+      </c>
+      <c r="B18" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="4"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="2">
+        <v>0.708333333333335</v>
+      </c>
+      <c r="B19" s="1">
+        <v>1.204</v>
+      </c>
+      <c r="D19" s="3"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="2">
+        <v>0.750000000000001</v>
+      </c>
+      <c r="B20" s="1">
+        <v>1.351</v>
+      </c>
+      <c r="D20" s="3"/>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="2">
+        <v>0.791666666666668</v>
+      </c>
+      <c r="B21" s="1">
+        <v>1.078</v>
+      </c>
+      <c r="D21" s="3"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="2">
+        <v>0.833333333333335</v>
+      </c>
+      <c r="B22" s="1">
+        <v>0.945</v>
+      </c>
+      <c r="D22" s="3"/>
+      <c r="E22" s="4"/>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="2">
+        <v>0.875000000000002</v>
+      </c>
+      <c r="B23" s="1">
+        <v>0.945</v>
+      </c>
+      <c r="D23" s="3"/>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="2">
+        <v>0.916666666666668</v>
+      </c>
+      <c r="B24" s="1">
+        <v>0.854</v>
+      </c>
+      <c r="D24" s="3"/>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="2">
+        <v>0.958333333333335</v>
+      </c>
+      <c r="B25" s="1">
+        <v>0.791</v>
+      </c>
+      <c r="D25" s="3"/>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="6"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="4"/>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="6"/>
+      <c r="D27" s="3"/>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="2"/>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="2"/>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="2"/>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="2"/>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="14.3333333333333" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.7387387387387" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1.06</v>
+      </c>
+      <c r="C2">
+        <f>B2*1.3</f>
+        <v>1.378</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="2">
+        <v>1.04166666666667</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1.01</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C25" si="0">B3*1.3</f>
+        <v>1.313</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="2">
+        <v>0.0833333333333335</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.96</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>1.248</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="2">
+        <v>0.125</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>1.235</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="2">
+        <v>0.166666666666667</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.96</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>1.248</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="5">
+        <v>0.208333333333333</v>
+      </c>
+      <c r="B7" s="4">
+        <v>0.96</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>1.248</v>
+      </c>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="B8" s="4">
+        <v>1.09</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>1.417</v>
+      </c>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="5">
+        <v>0.291666666666667</v>
+      </c>
+      <c r="B9" s="4">
+        <v>1.81</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>2.353</v>
+      </c>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="5">
+        <v>0.333333333333334</v>
+      </c>
+      <c r="B10" s="4">
+        <v>2.16</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>2.808</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="5">
+        <v>0.375000000000001</v>
+      </c>
+      <c r="B11" s="4">
+        <v>1.79</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>2.327</v>
+      </c>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="5">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="B12" s="4">
+        <v>1.63</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>2.119</v>
+      </c>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="2">
+        <v>0.458333333333334</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1.36</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>1.768</v>
+      </c>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="2">
+        <v>0.500000000000001</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1.27</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>1.651</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="4"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="2">
+        <v>0.541666666666668</v>
+      </c>
+      <c r="B15" s="1">
+        <v>1.33</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>1.729</v>
+      </c>
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="2">
+        <v>0.583333333333334</v>
+      </c>
+      <c r="B16" s="1">
+        <v>1.35</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>1.755</v>
+      </c>
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="2">
+        <v>0.625000000000001</v>
+      </c>
+      <c r="B17" s="1">
+        <v>1.35</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>1.755</v>
+      </c>
+      <c r="E17" s="3"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="2">
+        <v>0.666666666666668</v>
+      </c>
+      <c r="B18" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>1.82</v>
+      </c>
+      <c r="E18" s="3"/>
+      <c r="F18" s="4"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="2">
+        <v>0.708333333333335</v>
+      </c>
+      <c r="B19" s="1">
+        <v>1.72</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>2.236</v>
+      </c>
+      <c r="E19" s="3"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="2">
+        <v>0.750000000000001</v>
+      </c>
+      <c r="B20" s="1">
+        <v>1.93</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>2.509</v>
+      </c>
+      <c r="E20" s="3"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="2">
+        <v>0.791666666666668</v>
+      </c>
+      <c r="B21" s="1">
+        <v>1.54</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>2.002</v>
+      </c>
+      <c r="E21" s="3"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="2">
+        <v>0.833333333333335</v>
+      </c>
+      <c r="B22" s="1">
+        <v>1.35</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="0"/>
+        <v>1.755</v>
+      </c>
+      <c r="E22" s="3"/>
+      <c r="F22" s="4"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="2">
+        <v>0.875000000000002</v>
+      </c>
+      <c r="B23" s="1">
+        <v>1.35</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="0"/>
+        <v>1.755</v>
+      </c>
+      <c r="E23" s="3"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="2">
+        <v>0.916666666666668</v>
+      </c>
+      <c r="B24" s="1">
+        <v>1.22</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="0"/>
+        <v>1.586</v>
+      </c>
+      <c r="E24" s="3"/>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="2">
+        <v>0.958333333333335</v>
+      </c>
+      <c r="B25" s="1">
+        <v>1.13</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="0"/>
+        <v>1.469</v>
+      </c>
+      <c r="E25" s="3"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="6"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="4"/>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="6"/>
+      <c r="E27" s="3"/>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="2"/>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="2"/>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="2"/>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="2"/>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -2451,7 +5354,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2459,8 +5362,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -2468,7 +5371,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
